--- a/dossier_admin/admin/Dossier de Projet/divers/planning_app_dressing.xlsx
+++ b/dossier_admin/admin/Dossier de Projet/divers/planning_app_dressing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dressingAngular\dossier_admin\admin\Dossier de Projet\divers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1893F16-F81D-423E-ADCC-9940080D063D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AB1A10-D9DF-4C0C-B4BC-698589456612}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CCE45E21-4A4F-49F8-9864-474F6F71F672}"/>
+    <workbookView xWindow="4755" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{CCE45E21-4A4F-49F8-9864-474F6F71F672}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
   <si>
     <t>Tâche</t>
   </si>
@@ -81,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +94,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,21 +122,116 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -146,11 +247,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D44C30C-0F53-4758-B8C2-8F148CD83CBB}" name="Tableau1" displayName="Tableau1" ref="A1:B14" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D44C30C-0F53-4758-B8C2-8F148CD83CBB}" name="Tableau1" displayName="Tableau1" ref="A1:B14" totalsRowCount="1" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
   <autoFilter ref="A1:B13" xr:uid="{FC4BAAA4-97D4-4440-A336-A8489FFD63E7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D1538220-FCD3-4E9E-B629-BC7286A2E633}" name="Tâche" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{B9BEB7C8-4579-47FC-8428-8DD35C6B62DA}" name="Durée en jours" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D1538220-FCD3-4E9E-B629-BC7286A2E633}" name="Tâche" totalsRowLabel="Total" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{B9BEB7C8-4579-47FC-8428-8DD35C6B62DA}" name="Durée en jours" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -456,7 +557,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,115 +566,115 @@
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <f>SUBTOTAL(109,Tableau1[Durée en jours])</f>
         <v>38.5</v>
       </c>
@@ -581,8 +682,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>